--- a/biology/Médecine/Centre_hospitalier_universitaire_de_Besançon/Centre_hospitalier_universitaire_de_Besançon.xlsx
+++ b/biology/Médecine/Centre_hospitalier_universitaire_de_Besançon/Centre_hospitalier_universitaire_de_Besançon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Centre_hospitalier_universitaire_de_Besan%C3%A7on</t>
+          <t>Centre_hospitalier_universitaire_de_Besançon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le centre hospitalier universitaire (CHU) de Besançon est un centre hospitalier universitaire français situé à Besançon.
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Centre_hospitalier_universitaire_de_Besan%C3%A7on</t>
+          <t>Centre_hospitalier_universitaire_de_Besançon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,10 +528,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'édifice Jean-Minjoz fut bâti à partir de la fin des années 1970, et inauguré en 1982, avec pour objectifs la remontée des services situés à l'hôpital Saint-Jacques du centre-ville. Le transfert des services encore situés de Saint-Jacques a débuté en 2012 et doit se terminer à l'horizon 2026.  Il porte le nom d'un ancien maire de Besançon, Jean Minjoz (1904-1987), et fut ouvert en 1983.
-Depuis le 1er juillet 2016, le centre hospitalier régional universitaire de Besançon fait partie du groupement hospitalier de territoire (GHT) Centre Franche-Comté aux côtés de 10 autres établissements francs-comtois[1].
+Depuis le 1er juillet 2016, le centre hospitalier régional universitaire de Besançon fait partie du groupement hospitalier de territoire (GHT) Centre Franche-Comté aux côtés de 10 autres établissements francs-comtois.
 </t>
         </is>
       </c>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Centre_hospitalier_universitaire_de_Besan%C3%A7on</t>
+          <t>Centre_hospitalier_universitaire_de_Besançon</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,14 +564,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hôpital Jean-Minjoz
-En janvier 1984, l’hôpital Jean-Minjoz ouvre ses portes sur le site des Hauts de Chazal au cœur du pôle santé. Il porte ce nom en hommage à Jean Minjoz (1904-1987) qui fut maire de la ville de Besançon durant 35 ans. L’objectif à horizon 2026 est de réintégrer sur ce site unique l’ensemble des activités.
-Hôpital Saint-Jacques
-L’année 1966 marque la création juridique du centre hospitalier universitaire (CHU) de Besançon.
-Depuis octobre 2012, les services cliniques de l'hôpital Saint-Jacques ont été transférés à l'hôpital Jean-Minjoz à l'exception des services d'hospitalisation de psychiatrie, des explorations du sommeil ainsi que les unités de médecine légale. Le transfert des services encore situés à Saint-Jacques doit se terminer à l'horizon 2021 pour les services administratifs et 2026 pour les  derniers services cliniques encore présents (psychiatrie, explorations du sommeil et médecine légale).
-Un processus de vente du site Saint Jacques à la Société Publique locale Territoire 25 est par ailleurs engagé et a fait l'objet d'une promesse de vente signée le 15 mai 2023. 
-Les Tilleroyes
-Il s'agit d'un Institut de formation de professions de santé (IFPS) avec un centre de réadaptation.
+          <t>Hôpital Jean-Minjoz</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En janvier 1984, l’hôpital Jean-Minjoz ouvre ses portes sur le site des Hauts de Chazal au cœur du pôle santé. Il porte ce nom en hommage à Jean Minjoz (1904-1987) qui fut maire de la ville de Besançon durant 35 ans. L’objectif à horizon 2026 est de réintégrer sur ce site unique l’ensemble des activités.
 </t>
         </is>
       </c>
@@ -568,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Centre_hospitalier_universitaire_de_Besan%C3%A7on</t>
+          <t>Centre_hospitalier_universitaire_de_Besançon</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,10 +596,88 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Les sites du CHU</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Hôpital Saint-Jacques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’année 1966 marque la création juridique du centre hospitalier universitaire (CHU) de Besançon.
+Depuis octobre 2012, les services cliniques de l'hôpital Saint-Jacques ont été transférés à l'hôpital Jean-Minjoz à l'exception des services d'hospitalisation de psychiatrie, des explorations du sommeil ainsi que les unités de médecine légale. Le transfert des services encore situés à Saint-Jacques doit se terminer à l'horizon 2021 pour les services administratifs et 2026 pour les  derniers services cliniques encore présents (psychiatrie, explorations du sommeil et médecine légale).
+Un processus de vente du site Saint Jacques à la Société Publique locale Territoire 25 est par ailleurs engagé et a fait l'objet d'une promesse de vente signée le 15 mai 2023. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_universitaire_de_Besançon</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_universitaire_de_Besan%C3%A7on</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Les sites du CHU</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Les Tilleroyes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'un Institut de formation de professions de santé (IFPS) avec un centre de réadaptation.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_universitaire_de_Besançon</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_universitaire_de_Besan%C3%A7on</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Organisation et équipement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le CHU de Besançon est organisé en 4 pôles administratifs et 13 pôles cliniques et médico-techniques.
 Le bâtiment se divise lui-même en plusieurs bâtiments : le bâtiment gris (type hôpital-bloc), le plus ancien historiquement, il contient la plupart des services ainsi que les blocs opératoires dans ses sous sols. 
